--- a/biology/Médecine/Norman_Bethune/Norman_Bethune.xlsx
+++ b/biology/Médecine/Norman_Bethune/Norman_Bethune.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Henry Norman Bethune (né le 4 mars 1890 à Gravenhurst, Ontario, Canada et mort le 12 novembre 1939 en Chine) est un médecin canadien métis[2],[3] qui a surtout agi en Espagne durant la guerre civile espagnole (1936-1939) et en Chine durant la guerre sino-japonaise (1937-1945) où sa mémoire est honorée sous la transcription phonétique de son nom, 白求恩, báiqiúēn sur l’autel des ancêtres de beaucoup de chaumières et dans plusieurs essais de Mao Zedong. En 1990, la Chine et le Canada ont émis un timbre poste à l’effigie de Norman Bethune pour célébrer le centième anniversaire de sa naissance.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Henry Norman Bethune (né le 4 mars 1890 à Gravenhurst, Ontario, Canada et mort le 12 novembre 1939 en Chine) est un médecin canadien métis, qui a surtout agi en Espagne durant la guerre civile espagnole (1936-1939) et en Chine durant la guerre sino-japonaise (1937-1945) où sa mémoire est honorée sous la transcription phonétique de son nom, 白求恩, báiqiúēn sur l’autel des ancêtres de beaucoup de chaumières et dans plusieurs essais de Mao Zedong. En 1990, la Chine et le Canada ont émis un timbre poste à l’effigie de Norman Bethune pour célébrer le centième anniversaire de sa naissance.
 Chirurgien thoracique pneumologue, Norman Bethune est honoré comme humaniste, innovateur en chirurgie et précurseur de la médecine sociale qui a abouti au Canada à l’assurance-maladie universelle le 13 juin 1969.
 Atteint de tuberculose pulmonaire, Norman Bethune a essayé sur lui-même le pneumothorax artificiel par injection d’un gaz dans la cavité pleurale avant de développer et de répandre cette technique médicale. Il a aussi conçu des instruments chirurgicaux toujours produits et en usage.
 </t>
@@ -513,7 +525,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dès son enfance, il a eu une admiration débordante pour son grand-père Norman Bethune, chirurgien militaire pendant la guerre de Crimée et compagnon d'Henri Dunant, homme d'affaires et fondateur de la Croix-Rouge.
 Pendant la Première Guerre mondiale, Norman Bethune travaille comme brancardier. Il est blessé, à Ypres en Belgique, commune rendue tristement célèbre pour la première attaque au gaz de combat. Il continue, par la suite, ses études en médecine à l'Université de Toronto, puis s'enrôle de nouveau dans l'armée britannique comme chirurgien. Il est médecin militaire pour les aviateurs canadiens en France pendant les six derniers mois de la Première Guerre mondiale. Cette démarche est la première d'une longue série de réalisations pour venir en aide à l'humanité.
@@ -553,7 +567,9 @@
           <t>Héritage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En pratique médicale, Bethune a fait œuvre de pionnier dans la formation professionnelle des médecins et des infirmiers sur le terrain de l’action qui a abouti à la configuration chinoise des « médecins-aux-pieds-nus » agissant en profondeur dans la population, en contraste aux « médecins-en-blouse-blanche » des institutions hospitalières éloignées physiquement et socialement des besoins médicaux et sociaux de la population. La médecine sociale est celle qui privilégie l’étiologie sociale de la maladie. Cette perception est celle d’une approche écosystémique qui consiste à s’éloigner pour mieux percevoir, à relier pour mieux comprendre et à situer pour mieux agir.
 Dr Bethune a pris la problématique de la médecine sociale à la source en privilégiant la formation sur le terrain du personnel médical et en configurant les installations de soin au plus proche de la population en demande.
@@ -586,15 +602,17 @@
           <t>Honneurs et reconnaissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1964, un film intitulé Dr Norman Bethune (chinois : 白求恩大夫 ; pinyin : Báiqiúēn dàifu ; litt. « Docteur Bethune ») a été tourné en Chine. Un américain, Gerald Tannebaum (en), y incarnait le médecin.
 L’acteur canadien Donald Sutherland a joué le personnage de Norman Bethune dans deux films biographiques : Bethune (1977) et Bethune, the Making of a Hero (1990), une coproduction canado-franco-chinoise.
 L'Office national du film du Canada a produit un documentaire sur Norman Bethune intitulé Bethune, héros de notre temps et un autre sur les volontaires canadiens du bataillon Mackenzie-Papineau (surnommé Bataillon Mac-Pap) des Brigades internationales intitulé Los Canadienses. Ces documentaires sur film et vidéocassette sont disponibles à travers les ambassades et consulats du Canada et autres institutions culturelles du Canada.
 Il est membre du Temple de la renommée médicale canadienne.
-Mao Zedong, président de la République populaire de Chine de 1949 à 1976, a écrit un essai en hommage à Norman Bethune[4], que tous les écoliers chinois avaient l'obligation de lire[réf. souhaitée]. En Chine, on lui a érigé une statue à Shijiazhuang, consacré un pavillon, un musée, une école et un hôpital.
+Mao Zedong, président de la République populaire de Chine de 1949 à 1976, a écrit un essai en hommage à Norman Bethune, que tous les écoliers chinois avaient l'obligation de lire[réf. souhaitée]. En Chine, on lui a érigé une statue à Shijiazhuang, consacré un pavillon, un musée, une école et un hôpital.
 En 1976, une place Norman-Bethune a été inaugurée à Montréal.
-Le Parti communiste du Canada (marxiste-léniniste) lui a dédié une chanson[5]. 
+Le Parti communiste du Canada (marxiste-léniniste) lui a dédié une chanson. 
 </t>
         </is>
       </c>
@@ -623,7 +641,9 @@
           <t>Anecdotes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son admiration pour son grand-père fut telle qu'il avait accroché la plaque de médecin de son grand-père à la porte de sa chambre et adopté son nom « Norman Béthune » à la place du sien « Henry Norman Béthune ». Cette admiration se rapportait à la fois à la médecine et à l'humanisme dans les affaires sociales. Elle s'est manifestée dans ses œuvres en chirurgie de guerre en première ligne et dans la médecine sociale.
 Norman Bethune s’est toujours offusqué en entendant son nom prononcé à l’anglaise « Bethioun », dans un Canada bilingue, évoquant la ville française du nom de Béthune dans le Pas-de-Calais.
